--- a/DSML-Cheatsheet.xlsx
+++ b/DSML-Cheatsheet.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Ampps\www\LearnDSML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD785C-CB85-45FD-9FDC-70BCB2B601BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959988F4-A6CF-4A43-B1BF-E54C96B06B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58B2A45A-BFF2-474A-AF75-31939077020F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
+    <sheet name="HTML" sheetId="2" r:id="rId2"/>
+    <sheet name="CSS" sheetId="3" r:id="rId3"/>
+    <sheet name="JS" sheetId="4" r:id="rId4"/>
+    <sheet name="Python" sheetId="5" r:id="rId5"/>
+    <sheet name="R" sheetId="6" r:id="rId6"/>
+    <sheet name="PBI" sheetId="8" r:id="rId7"/>
+    <sheet name="Links" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +40,280 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+  <si>
+    <t>!DOCTYPE</t>
+  </si>
+  <si>
+    <t>Declaration that the file is a HTML55 webpage</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>/html</t>
+  </si>
+  <si>
+    <t>root element</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>/head</t>
+  </si>
+  <si>
+    <t>display on web tabe and has the meta information</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>/body</t>
+  </si>
+  <si>
+    <t>Content of web page</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>opening tag</t>
+  </si>
+  <si>
+    <t>closing tag</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>embeds image to webpage</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>location  of the image</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>displays the text when image is not displayed</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>Meta information of the webpage</t>
+  </si>
+  <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>Handles the characters of the webpage using the this attribute</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>/h1</t>
+  </si>
+  <si>
+    <t>/h2</t>
+  </si>
+  <si>
+    <t>/h3</t>
+  </si>
+  <si>
+    <t>/h4</t>
+  </si>
+  <si>
+    <t>/h5</t>
+  </si>
+  <si>
+    <t>/h6</t>
+  </si>
+  <si>
+    <t>Heading level 1</t>
+  </si>
+  <si>
+    <t>Heading level 2</t>
+  </si>
+  <si>
+    <t>Heading level 3</t>
+  </si>
+  <si>
+    <t>Heading level 4</t>
+  </si>
+  <si>
+    <t>Heading level 5</t>
+  </si>
+  <si>
+    <t>Heading level 6</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Paragraph or Content </t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>/li</t>
+  </si>
+  <si>
+    <t>/ol</t>
+  </si>
+  <si>
+    <t>/ul</t>
+  </si>
+  <si>
+    <t>Ordered List</t>
+  </si>
+  <si>
+    <t>Unordered List</t>
+  </si>
+  <si>
+    <t>List Item</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>/a</t>
+  </si>
+  <si>
+    <t>Links to a website/image/file/video/audio</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>destination location of the file which will be linked to anchor tag</t>
+  </si>
+  <si>
+    <t>HTML Web Docs for Reference</t>
+  </si>
+  <si>
+    <t>HTML Comments</t>
+  </si>
+  <si>
+    <t>&lt;!--Comment--&gt;</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/</t>
+  </si>
+  <si>
+    <t>Mozilla Web developer for reference in Web Dev coding</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>https://favicon.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Get Favicon </t>
+  </si>
+  <si>
+    <t>Data base Creation</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE &lt;Database Name&gt;</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>USE &lt;Database Name&gt;</t>
+  </si>
+  <si>
+    <t>USE Database / Dataset</t>
+  </si>
+  <si>
+    <t>Table Creation</t>
+  </si>
+  <si>
+    <t>CREATE TABLE &lt;TableName&gt; (column1 datatype1, column2 datatype2)</t>
+  </si>
+  <si>
+    <t>Insert Data to Table</t>
+  </si>
+  <si>
+    <t>INSERT INTO &lt;TableName&gt; 
+VALUES (column 1 row 1, column 2 row 1), (column 1 row 2, column 2 row 2), (column 1 row 3, column 2 row 3)</t>
+  </si>
+  <si>
+    <t>Remove Table</t>
+  </si>
+  <si>
+    <t>DROP TABLE &lt;Table Name&gt;</t>
+  </si>
+  <si>
+    <t>DROP DATABASE &lt;Database Name&gt;</t>
+  </si>
+  <si>
+    <t>Data base Deletion</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Not Null, Unique, Primary Key, Foreign Key, Default, Auto_increment</t>
+  </si>
+  <si>
+    <t>INSERT INTO &lt;TableName&gt; &lt;column2&gt;
+VALUES (row 1), (row 2), (row 3)</t>
+  </si>
+  <si>
+    <t>Insert Data to Table with specific column with Auto Increment</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +321,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,14 +381,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +692,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F497B-234A-422B-92AF-96BB1DE9ED04}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D39E8-2F6F-4087-BD9D-E90F78499E1E}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/HTML" xr:uid="{82343386-1BE9-4D2A-9906-4BDC2F53FEF9}"/>
+    <hyperlink ref="A1:E1" r:id="rId2" display="HTML Web Docs for Reference" xr:uid="{0CB983E1-416D-4E2D-B25A-F13E4FCF435C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363B0436-FD0B-4D1D-99FB-8E86D6D1DC90}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC22B5C-B3CC-413A-941D-557513A7B6B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B97C69E-FB02-4283-BEC8-453F2D57C60F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79029938-1941-4BA6-86AC-830DEDCC77DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBDAD2A-956B-4D2C-96B3-46E07DA9454B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F45A1D-2DA0-4966-B133-E1D8668FA857}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BD48360D-AF9E-49BE-BFC0-28272B7D9167}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FD7A287A-F706-4335-AF57-4DD677556D70}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSML-Cheatsheet.xlsx
+++ b/DSML-Cheatsheet.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Ampps\www\LearnDSML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959988F4-A6CF-4A43-B1BF-E54C96B06B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9384355E-EDD2-445B-98EF-7C69C6908DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58B2A45A-BFF2-474A-AF75-31939077020F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{58B2A45A-BFF2-474A-AF75-31939077020F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
     <sheet name="HTML" sheetId="2" r:id="rId2"/>
-    <sheet name="CSS" sheetId="3" r:id="rId3"/>
-    <sheet name="JS" sheetId="4" r:id="rId4"/>
-    <sheet name="Python" sheetId="5" r:id="rId5"/>
-    <sheet name="R" sheetId="6" r:id="rId6"/>
-    <sheet name="PBI" sheetId="8" r:id="rId7"/>
-    <sheet name="Links" sheetId="9" r:id="rId8"/>
+    <sheet name="Links" sheetId="9" r:id="rId3"/>
+    <sheet name="Projects or Business Case" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>!DOCTYPE</t>
   </si>
@@ -307,6 +303,36 @@
   </si>
   <si>
     <t>Insert Data to Table with specific column with Auto Increment</t>
+  </si>
+  <si>
+    <t>MySQL Documentation</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/doc/</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/</t>
+  </si>
+  <si>
+    <t>Big Query Documentation</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/excel-functions-alphabetical-b3944572-255d-4efb-bb96-c6d90033e188</t>
+  </si>
+  <si>
+    <t>Excel Documentation</t>
+  </si>
+  <si>
+    <t>BC-Analyze-Retail-Company-using-SQL</t>
+  </si>
+  <si>
+    <t>Project/Business Case</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -414,12 +440,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,21 +720,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F497B-234A-422B-92AF-96BB1DE9ED04}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.8984375" customWidth="1"/>
+    <col min="1" max="1" width="46.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -740,7 +766,7 @@
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -772,7 +798,7 @@
       <c r="A9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -785,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D39E8-2F6F-4087-BD9D-E90F78499E1E}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -799,13 +825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1117,75 +1143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363B0436-FD0B-4D1D-99FB-8E86D6D1DC90}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F45A1D-2DA0-4966-B133-E1D8668FA857}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC22B5C-B3CC-413A-941D-557513A7B6B6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B97C69E-FB02-4283-BEC8-453F2D57C60F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79029938-1941-4BA6-86AC-830DEDCC77DE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBDAD2A-956B-4D2C-96B3-46E07DA9454B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F45A1D-2DA0-4966-B133-E1D8668FA857}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1218,11 +1180,72 @@
         <v>68</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BD48360D-AF9E-49BE-BFC0-28272B7D9167}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{FD7A287A-F706-4335-AF57-4DD677556D70}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{581F18EE-9EC6-4C0D-AC36-BE7EC1199F1F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{34A68721-9226-4FE8-A6F6-9F5D340773A8}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{15A1D238-91B1-440E-801D-07B58F4E9502}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E4192C-77D1-438E-95AA-237B1801E9D7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>